--- a/results/AdaBoostClassifier_ElasticNet_randomsearch-val_df.xlsx
+++ b/results/AdaBoostClassifier_ElasticNet_randomsearch-val_df.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3157894736842105</v>
+        <v>0.5185185185185186</v>
       </c>
       <c r="E2" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5517241379310344</v>
+        <v>0.380952380952381</v>
       </c>
       <c r="E3" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4333333333333333</v>
+        <v>0.45</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4357142857142857</v>
+        <v>0.451048951048951</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4337568058076224</v>
+        <v>0.4497354497354498</v>
       </c>
       <c r="E5" t="n">
         <v>24</v>
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.45</v>
+        <v>0.4541666666666667</v>
       </c>
       <c r="C6" t="n">
         <v>0.4583333333333333</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4534180278281911</v>
+        <v>0.4554673721340389</v>
       </c>
       <c r="E6" t="n">
         <v>24</v>
@@ -557,16 +557,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="D7" t="n">
-        <v>0.380952380952381</v>
+        <v>0.5161290322580646</v>
       </c>
       <c r="E7" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
@@ -576,16 +576,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5384615384615384</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5185185185185186</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="E8" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9">
@@ -595,16 +595,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.375</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.375</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.375</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="10">
@@ -614,13 +614,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.451048951048951</v>
+        <v>0.3055555555555555</v>
       </c>
       <c r="C10" t="n">
-        <v>0.45</v>
+        <v>0.3531468531468532</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4497354497354498</v>
+        <v>0.316888045540797</v>
       </c>
       <c r="E10" t="n">
         <v>24</v>
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4656177156177156</v>
+        <v>0.3171296296296296</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.375</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4611992945326279</v>
+        <v>0.3334914611005693</v>
       </c>
       <c r="E11" t="n">
         <v>24</v>
@@ -652,16 +652,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
@@ -671,16 +671,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.6</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14">
@@ -709,13 +709,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.5142857142857142</v>
+        <v>0.5034965034965035</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5142857142857142</v>
+        <v>0.5034965034965035</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="E15" t="n">
         <v>24</v>
@@ -728,13 +728,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.5285714285714286</v>
+        <v>0.506993006993007</v>
       </c>
       <c r="C16" t="n">
         <v>0.5</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5</v>
+        <v>0.4999999999999998</v>
       </c>
       <c r="E16" t="n">
         <v>24</v>
@@ -747,16 +747,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.5</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6428571428571429</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="E17" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
@@ -766,16 +766,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3571428571428572</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="E18" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19">
@@ -804,13 +804,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.5804195804195804</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6285714285714286</v>
+        <v>0.5804195804195804</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5804195804195804</v>
       </c>
       <c r="E20" t="n">
         <v>24</v>
@@ -823,13 +823,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.6944444444444445</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C21" t="n">
         <v>0.5833333333333334</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5595238095238095</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="E21" t="n">
         <v>24</v>
@@ -842,16 +842,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="D22" t="n">
-        <v>0.4347826086956522</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="E22" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23">
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4799999999999999</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="E23" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24">
@@ -880,16 +880,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="C24" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="E24" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="25">
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.465034965034965</v>
+        <v>0.4965034965034965</v>
       </c>
       <c r="C25" t="n">
-        <v>0.4642857142857143</v>
+        <v>0.4965034965034965</v>
       </c>
       <c r="D25" t="n">
-        <v>0.457391304347826</v>
+        <v>0.4965034965034965</v>
       </c>
       <c r="E25" t="n">
         <v>24</v>
@@ -918,13 +918,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.4784382284382284</v>
+        <v>0.5</v>
       </c>
       <c r="C26" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4611594202898551</v>
+        <v>0.5</v>
       </c>
       <c r="E26" t="n">
         <v>24</v>
